--- a/test/clientes.xlsx
+++ b/test/clientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\TFG\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0E6939-3A33-4F2B-87F5-9E537513ADA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A059555-83AC-4582-A6A8-B8DA07C0166F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
